--- a/charlal1_sorting_algorithms/sorting_algorithms.xlsx
+++ b/charlal1_sorting_algorithms/sorting_algorithms.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rNdm\Documents\Work\ADS\charlal1_sorting_algorithms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\ADS\charlal1_sorting_algorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1012,11 +1012,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1582075056"/>
-        <c:axId val="1582090288"/>
+        <c:axId val="-2024467536"/>
+        <c:axId val="-2024465360"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1582075056"/>
+        <c:axId val="-2024467536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1059,7 +1059,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1582090288"/>
+        <c:crossAx val="-2024465360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1067,7 +1067,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1582090288"/>
+        <c:axId val="-2024465360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1118,7 +1118,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1582075056"/>
+        <c:crossAx val="-2024467536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1760,15 +1760,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>155575</xdr:colOff>
+      <xdr:colOff>288925</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>117474</xdr:rowOff>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>460375</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
+      <xdr:colOff>593725</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2056,12 +2056,12 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" s="1">
         <v>32</v>
       </c>
@@ -2084,7 +2084,7 @@
         <v>2048</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2110,7 +2110,7 @@
         <v>11142031</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2136,7 +2136,7 @@
         <v>2802638</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -2162,7 +2162,7 @@
         <v>2835525</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
